--- a/UMICH-Introduction to Data Science in Python/scimagojr-3.xlsx
+++ b/UMICH-Introduction to Data Science in Python/scimagojr-3.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66e47e71d2ed9fd8/바탕 화면/전북대_산공/GITHUB/Open-Course/UMICH-Introduction to Data Science in Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_20425FC2DB7C6C91B31CDF8E851F0E30418B507A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A98884DE-FBD4-4831-9053-20F43D7B4DF7}"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="212" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -287,7 +292,7 @@
     <t>Lebanon</t>
   </si>
   <si>
-    <t>Latvia </t>
+    <t>Latvia</t>
   </si>
   <si>
     <t>Cyprus</t>
@@ -296,7 +301,7 @@
     <t>Belarus</t>
   </si>
   <si>
-    <t>Philippines </t>
+    <t>Philippines</t>
   </si>
   <si>
     <t>Peru</t>
@@ -419,7 +424,7 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Senegal </t>
+    <t>Senegal</t>
   </si>
   <si>
     <t>Burkina Faso</t>
@@ -689,31 +694,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -725,7 +718,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -733,6039 +726,6317 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I206"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5"/>
+    <col min="1" max="1" width="11.453125"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>235126</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>233883</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1909601</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>1306438</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>8.12</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="H2">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I2">
         <v>224</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>157811</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>154288</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>1940563</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>639345</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>12.3</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>46032</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>45559</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>436961</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>109968</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>9.49</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>181</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>39893</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>38848</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>368175</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>123446</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>9.23</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>171</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>38873</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>37780</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>536378</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>100038</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>13.8</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>32935</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>32227</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>367356</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>78265</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>11.15</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>186</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>31880</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>31664</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>91906</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>42529</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>2.88</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>29633</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>29011</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>491467</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>88987</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>16.59</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>210</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>23725</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>22819</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>312631</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>76446</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>13.18</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>23451</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>23166</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>279709</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>53110</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>11.93</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>22429</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>21913</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>300015</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>58151</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>13.38</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>169</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>19371</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>19085</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>242250</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>77012</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>12.51</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>18882</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>18529</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>312632</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>56968</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="I14" s="0" t="n">
+      <c r="H14">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="I14">
         <v>163</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>18077</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>17661</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>263733</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>44799</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>14.59</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>161</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>18024</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>17745</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>152380</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>37112</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="I16" s="0" t="n">
+      <c r="H16">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="I16">
         <v>121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>11700</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>11596</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>180159</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>25045</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>15.4</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>142</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>11273</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>10992</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>204214</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>41937</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>18.12</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>152</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>9710</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>9448</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>134337</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>17418</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>13.83</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>9643</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>9514</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>103992</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>21105</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>10.78</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>114</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>8869</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>8595</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>106596</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>25077</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>12.02</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21">
         <v>116</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>8819</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>8603</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>152305</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>23635</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>17.27</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>141</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>7777</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>7546</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>123580</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23">
         <v>20855</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>15.89</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23">
         <v>136</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>7433</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>7288</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>79584</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24">
         <v>12886</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>10.71</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24">
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>7079</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>6918</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>67535</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25">
         <v>16007</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>9.54</v>
-      </c>
-      <c r="I25" s="0" t="n">
+      <c r="H25">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="I25">
         <v>83</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>6670</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>6505</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>104099</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>14980</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>15.61</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>6077</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>5976</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>60829</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>10576</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>10.01</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27">
         <v>89</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>6058</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>5871</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>54227</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>9465</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <v>8.95</v>
-      </c>
-      <c r="I28" s="0" t="n">
+      <c r="H28">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I28">
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>5700</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>5560</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>15703</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>8006</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>2.75</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>5490</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>5189</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>67025</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>10908</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>12.21</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30">
         <v>95</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>5446</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>5274</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>98913</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>9754</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>18.16</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>123</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>5234</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>5088</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32">
         <v>97781</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32">
         <v>13231</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32">
         <v>18.68</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32">
         <v>122</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>5177</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>4991</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>68768</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33">
         <v>8733</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33">
         <v>13.28</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33">
         <v>101</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>5119</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>5054</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>99228</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34">
         <v>11750</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34">
         <v>19.38</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34">
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>4908</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>4867</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>25156</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35">
         <v>5770</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35">
         <v>5.13</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35">
         <v>63</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>4406</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>4301</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>38634</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36">
         <v>6715</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36">
         <v>8.77</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>4122</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>4003</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>52369</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37">
         <v>7952</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37">
         <v>12.7</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37">
         <v>87</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>3834</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>3693</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>43189</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38">
         <v>5031</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38">
         <v>11.26</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38">
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>3726</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>3677</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>48192</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39">
         <v>6088</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39">
         <v>12.93</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39">
         <v>89</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>3588</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>3562</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>14786</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40">
         <v>3251</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40">
         <v>4.12</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>3389</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>3329</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41">
         <v>17528</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41">
         <v>3830</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41">
         <v>5.17</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>3251</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>3200</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42">
         <v>20045</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42">
         <v>4126</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42">
         <v>6.17</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42">
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>3205</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>3111</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43">
         <v>26589</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43">
         <v>5320</v>
       </c>
-      <c r="H43" s="0" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="I43" s="0" t="n">
+      <c r="H43">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I43">
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>3036</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>2989</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>25446</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44">
         <v>2792</v>
       </c>
-      <c r="H44" s="0" t="n">
-        <v>8.38</v>
-      </c>
-      <c r="I44" s="0" t="n">
+      <c r="H44">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="I44">
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>2457</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>2428</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>24886</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45">
         <v>3407</v>
       </c>
-      <c r="H45" s="0" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="I45" s="0" t="n">
+      <c r="H45">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="I45">
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>2175</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>2130</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46">
         <v>43278</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46">
         <v>4867</v>
       </c>
-      <c r="H46" s="0" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="I46" s="0" t="n">
+      <c r="H46">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I46">
         <v>95</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>2027</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>1992</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>27159</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47">
         <v>2722</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47">
         <v>13.4</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47">
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>2026</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>1997</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>12832</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48">
         <v>2366</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48">
         <v>6.33</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>2025</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>1998</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49">
         <v>23263</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49">
         <v>3209</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49">
         <v>11.49</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="I49">
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>1995</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>1944</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>30131</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50">
         <v>3827</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50">
         <v>15.1</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50">
         <v>77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>1947</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>1922</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51">
         <v>8908</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51">
         <v>1471</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51">
         <v>4.58</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="I51">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>1858</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>1806</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52">
         <v>17237</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52">
         <v>2329</v>
       </c>
-      <c r="H52" s="0" t="n">
-        <v>9.28</v>
-      </c>
-      <c r="I52" s="0" t="n">
+      <c r="H52">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I52">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>1652</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>1613</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53">
         <v>13667</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53">
         <v>2583</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53">
         <v>8.27</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="I53">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>1645</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>1596</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54">
         <v>14674</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54">
         <v>2554</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54">
         <v>8.92</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="I54">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>1624</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>1597</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55">
         <v>15996</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55">
         <v>2446</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55">
         <v>9.85</v>
       </c>
-      <c r="I55" s="0" t="n">
+      <c r="I55">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>1614</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>1585</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56">
         <v>13968</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56">
         <v>1676</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="H56">
         <v>8.65</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="I56">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>1499</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>1447</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57">
         <v>11827</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57">
         <v>2154</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="H57">
         <v>7.89</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="I57">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>1438</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>1408</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58">
         <v>5656</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58">
         <v>1492</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="H58">
         <v>3.93</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="I58">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>1437</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>1413</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59">
         <v>7537</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59">
         <v>1139</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="H59">
         <v>5.24</v>
       </c>
-      <c r="I59" s="0" t="n">
+      <c r="I59">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>1362</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>1334</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60">
         <v>8277</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="G60">
         <v>1314</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="H60">
         <v>6.08</v>
       </c>
-      <c r="I60" s="0" t="n">
+      <c r="I60">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>1342</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>1335</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61">
         <v>12710</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61">
         <v>1764</v>
       </c>
-      <c r="H61" s="0" t="n">
-        <v>9.47</v>
-      </c>
-      <c r="I61" s="0" t="n">
+      <c r="H61">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="I61">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>1335</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>1306</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62">
         <v>8514</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62">
         <v>1726</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="H62">
         <v>6.38</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="I62">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>1269</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>1245</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63">
         <v>10908</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63">
         <v>1557</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63">
         <v>8.6</v>
       </c>
-      <c r="I63" s="0" t="n">
+      <c r="I63">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>1243</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>1238</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64">
         <v>12730</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64">
         <v>1130</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64">
         <v>10.24</v>
       </c>
-      <c r="I64" s="0" t="n">
+      <c r="I64">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>1242</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>1206</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65">
         <v>16012</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65">
         <v>1677</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65">
         <v>12.89</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="I65">
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>1106</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>1070</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>6773</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66">
         <v>2605</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66">
         <v>6.12</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="I66">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1045</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>1026</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67">
         <v>15256</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67">
         <v>1625</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67">
         <v>14.6</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="I67">
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>899</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>885</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68">
         <v>8184</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68">
         <v>859</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68">
         <v>9.1</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="I68">
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>842</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>825</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69">
         <v>2405</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69">
         <v>565</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69">
         <v>2.86</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="I69">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>838</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>816</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70">
         <v>4852</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="G70">
         <v>1130</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70">
         <v>5.79</v>
       </c>
-      <c r="I70" s="0" t="n">
+      <c r="I70">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>830</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>826</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71">
         <v>1950</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="G71">
         <v>449</v>
       </c>
-      <c r="H71" s="0" t="n">
+      <c r="H71">
         <v>2.35</v>
       </c>
-      <c r="I71" s="0" t="n">
+      <c r="I71">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>743</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>741</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72">
         <v>1536</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="G72">
         <v>400</v>
       </c>
-      <c r="H72" s="0" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="I72" s="0" t="n">
+      <c r="H72">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I72">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>702</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>696</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73">
         <v>9701</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="G73">
         <v>816</v>
       </c>
-      <c r="H73" s="0" t="n">
+      <c r="H73">
         <v>13.82</v>
       </c>
-      <c r="I73" s="0" t="n">
+      <c r="I73">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>651</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>648</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74">
         <v>2316</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74">
         <v>657</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74">
         <v>3.56</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="I74">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>574</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>549</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75">
         <v>12061</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="G75">
         <v>773</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="H75">
         <v>21.01</v>
       </c>
-      <c r="I75" s="0" t="n">
+      <c r="I75">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
-      <c r="A76" s="0" t="n">
+    <row r="76" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>568</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>562</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76">
         <v>2001</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G76">
         <v>416</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="H76">
         <v>3.52</v>
       </c>
-      <c r="I76" s="0" t="n">
+      <c r="I76">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>482</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>474</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77">
         <v>3888</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="G77">
         <v>655</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="H77">
         <v>8.07</v>
       </c>
-      <c r="I77" s="0" t="n">
+      <c r="I77">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>94</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>433</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>431</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78">
         <v>887</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="G78">
         <v>154</v>
       </c>
-      <c r="H78" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="I78" s="0" t="n">
+      <c r="H78">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I78">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>95</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>416</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>388</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79">
         <v>3879</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79">
         <v>321</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79">
         <v>9.32</v>
       </c>
-      <c r="I79" s="0" t="n">
+      <c r="I79">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>324</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>322</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80">
         <v>1889</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80">
         <v>303</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80">
         <v>5.83</v>
       </c>
-      <c r="I80" s="0" t="n">
+      <c r="I80">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>97</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>320</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>307</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81">
         <v>2245</v>
       </c>
-      <c r="G81" s="0" t="n">
+      <c r="G81">
         <v>210</v>
       </c>
-      <c r="H81" s="0" t="n">
+      <c r="H81">
         <v>7.02</v>
       </c>
-      <c r="I81" s="0" t="n">
+      <c r="I81">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
-      <c r="A82" s="0" t="n">
+    <row r="82" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>319</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>317</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82">
         <v>2207</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82">
         <v>128</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="H82">
         <v>6.92</v>
       </c>
-      <c r="I82" s="0" t="n">
+      <c r="I82">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>30</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>309</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>303</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83">
         <v>2360</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83">
         <v>290</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="H83">
         <v>7.64</v>
       </c>
-      <c r="I83" s="0" t="n">
+      <c r="I83">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>302</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>288</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84">
         <v>2779</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="G84">
         <v>94</v>
       </c>
-      <c r="H84" s="0" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="I84" s="0" t="n">
+      <c r="H84">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I84">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>298</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>289</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85">
         <v>1282</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85">
         <v>259</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85">
         <v>4.3</v>
       </c>
-      <c r="I85" s="0" t="n">
+      <c r="I85">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>102</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>271</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86">
         <v>260</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86">
         <v>3004</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86">
         <v>233</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="H86">
         <v>11.08</v>
       </c>
-      <c r="I86" s="0" t="n">
+      <c r="I86">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>253</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>248</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87">
         <v>2532</v>
       </c>
-      <c r="G87" s="0" t="n">
+      <c r="G87">
         <v>198</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="H87">
         <v>10.01</v>
       </c>
-      <c r="I87" s="0" t="n">
+      <c r="I87">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>104</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>52</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>252</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>248</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88">
         <v>1281</v>
       </c>
-      <c r="G88" s="0" t="n">
+      <c r="G88">
         <v>178</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="H88">
         <v>5.08</v>
       </c>
-      <c r="I88" s="0" t="n">
+      <c r="I88">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
-      <c r="A89" s="0" t="n">
+    <row r="89" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>105</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>249</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>246</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89">
         <v>1366</v>
       </c>
-      <c r="G89" s="0" t="n">
+      <c r="G89">
         <v>103</v>
       </c>
-      <c r="H89" s="0" t="n">
+      <c r="H89">
         <v>5.49</v>
       </c>
-      <c r="I89" s="0" t="n">
+      <c r="I89">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
-      <c r="A90" s="0" t="n">
+    <row r="90" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>25</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>222</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>218</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90">
         <v>2026</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90">
         <v>77</v>
       </c>
-      <c r="H90" s="0" t="n">
-        <v>9.13</v>
-      </c>
-      <c r="I90" s="0" t="n">
+      <c r="H90">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="I90">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
-      <c r="A91" s="0" t="n">
+    <row r="91" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>211</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>208</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91">
         <v>1205</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="G91">
         <v>167</v>
       </c>
-      <c r="H91" s="0" t="n">
+      <c r="H91">
         <v>5.71</v>
       </c>
-      <c r="I91" s="0" t="n">
+      <c r="I91">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
-      <c r="A92" s="0" t="n">
+    <row r="92" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>197</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>195</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92">
         <v>1824</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="G92">
         <v>180</v>
       </c>
-      <c r="H92" s="0" t="n">
+      <c r="H92">
         <v>9.26</v>
       </c>
-      <c r="I92" s="0" t="n">
+      <c r="I92">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
-      <c r="A93" s="0" t="n">
+    <row r="93" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>25</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>190</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>187</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93">
         <v>1434</v>
       </c>
-      <c r="G93" s="0" t="n">
+      <c r="G93">
         <v>120</v>
       </c>
-      <c r="H93" s="0" t="n">
+      <c r="H93">
         <v>7.55</v>
       </c>
-      <c r="I93" s="0" t="n">
+      <c r="I93">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
-      <c r="A94" s="0" t="n">
+    <row r="94" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>110</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>184</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>178</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94">
         <v>1738</v>
       </c>
-      <c r="G94" s="0" t="n">
+      <c r="G94">
         <v>164</v>
       </c>
-      <c r="H94" s="0" t="n">
-        <v>9.45</v>
-      </c>
-      <c r="I94" s="0" t="n">
+      <c r="H94">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="I94">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
-      <c r="A95" s="0" t="n">
+    <row r="95" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>111</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>169</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95">
         <v>169</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95">
         <v>1060</v>
       </c>
-      <c r="G95" s="0" t="n">
+      <c r="G95">
         <v>108</v>
       </c>
-      <c r="H95" s="0" t="n">
+      <c r="H95">
         <v>6.27</v>
       </c>
-      <c r="I95" s="0" t="n">
+      <c r="I95">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
-      <c r="A96" s="0" t="n">
+    <row r="96" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>112</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>19</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>167</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96">
         <v>152</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96">
         <v>239</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="G96">
         <v>99</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="H96">
         <v>1.43</v>
       </c>
-      <c r="I96" s="0" t="n">
+      <c r="I96">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
-      <c r="A97" s="0" t="n">
+    <row r="97" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>150</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97">
         <v>149</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97">
         <v>524</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="G97">
         <v>87</v>
       </c>
-      <c r="H97" s="0" t="n">
+      <c r="H97">
         <v>3.49</v>
       </c>
-      <c r="I97" s="0" t="n">
+      <c r="I97">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
-      <c r="A98" s="0" t="n">
+    <row r="98" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>114</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>144</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>139</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98">
         <v>1712</v>
       </c>
-      <c r="G98" s="0" t="n">
+      <c r="G98">
         <v>168</v>
       </c>
-      <c r="H98" s="0" t="n">
+      <c r="H98">
         <v>11.89</v>
       </c>
-      <c r="I98" s="0" t="n">
+      <c r="I98">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
-      <c r="A99" s="0" t="n">
+    <row r="99" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>115</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>52</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>143</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>141</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99">
         <v>1110</v>
       </c>
-      <c r="G99" s="0" t="n">
+      <c r="G99">
         <v>165</v>
       </c>
-      <c r="H99" s="0" t="n">
+      <c r="H99">
         <v>7.76</v>
       </c>
-      <c r="I99" s="0" t="n">
+      <c r="I99">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
-      <c r="A100" s="0" t="n">
+    <row r="100" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>141</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>141</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100">
         <v>679</v>
       </c>
-      <c r="G100" s="0" t="n">
+      <c r="G100">
         <v>129</v>
       </c>
-      <c r="H100" s="0" t="n">
+      <c r="H100">
         <v>4.82</v>
       </c>
-      <c r="I100" s="0" t="n">
+      <c r="I100">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
-      <c r="A101" s="0" t="n">
+    <row r="101" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>117</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>19</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>141</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101">
         <v>140</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101">
         <v>1144</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="G101">
         <v>406</v>
       </c>
-      <c r="H101" s="0" t="n">
+      <c r="H101">
         <v>8.11</v>
       </c>
-      <c r="I101" s="0" t="n">
+      <c r="I101">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
-      <c r="A102" s="0" t="n">
+    <row r="102" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>118</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>52</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>134</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102">
         <v>134</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102">
         <v>804</v>
       </c>
-      <c r="G102" s="0" t="n">
+      <c r="G102">
         <v>52</v>
       </c>
-      <c r="H102" s="0" t="n">
+      <c r="H102">
         <v>6</v>
       </c>
-      <c r="I102" s="0" t="n">
+      <c r="I102">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
-      <c r="A103" s="0" t="n">
+    <row r="103" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>119</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>130</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103">
         <v>129</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103">
         <v>1532</v>
       </c>
-      <c r="G103" s="0" t="n">
+      <c r="G103">
         <v>154</v>
       </c>
-      <c r="H103" s="0" t="n">
+      <c r="H103">
         <v>11.78</v>
       </c>
-      <c r="I103" s="0" t="n">
+      <c r="I103">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
-      <c r="A104" s="0" t="n">
+    <row r="104" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>126</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>124</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104">
         <v>1188</v>
       </c>
-      <c r="G104" s="0" t="n">
+      <c r="G104">
         <v>65</v>
       </c>
-      <c r="H104" s="0" t="n">
+      <c r="H104">
         <v>9.43</v>
       </c>
-      <c r="I104" s="0" t="n">
+      <c r="I104">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
-      <c r="A105" s="0" t="n">
+    <row r="105" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" t="s">
         <v>121</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>104</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>103</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105">
         <v>468</v>
       </c>
-      <c r="G105" s="0" t="n">
+      <c r="G105">
         <v>76</v>
       </c>
-      <c r="H105" s="0" t="n">
+      <c r="H105">
         <v>4.5</v>
       </c>
-      <c r="I105" s="0" t="n">
+      <c r="I105">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
-      <c r="A106" s="0" t="n">
+    <row r="106" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>122</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>103</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>93</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106">
         <v>395</v>
       </c>
-      <c r="G106" s="0" t="n">
+      <c r="G106">
         <v>61</v>
       </c>
-      <c r="H106" s="0" t="n">
+      <c r="H106">
         <v>3.83</v>
       </c>
-      <c r="I106" s="0" t="n">
+      <c r="I106">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
-      <c r="A107" s="0" t="n">
+    <row r="107" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>123</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>52</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>100</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>88</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107">
         <v>485</v>
       </c>
-      <c r="G107" s="0" t="n">
+      <c r="G107">
         <v>31</v>
       </c>
-      <c r="H107" s="0" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="I107" s="0" t="n">
+      <c r="H107">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I107">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
-      <c r="A108" s="0" t="n">
+    <row r="108" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>124</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>52</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>97</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>90</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108">
         <v>473</v>
       </c>
-      <c r="G108" s="0" t="n">
+      <c r="G108">
         <v>41</v>
       </c>
-      <c r="H108" s="0" t="n">
+      <c r="H108">
         <v>4.88</v>
       </c>
-      <c r="I108" s="0" t="n">
+      <c r="I108">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
-      <c r="A109" s="0" t="n">
+    <row r="109" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109">
         <v>92</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109">
         <v>91</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109">
         <v>100</v>
       </c>
-      <c r="G109" s="0" t="n">
+      <c r="G109">
         <v>6</v>
       </c>
-      <c r="H109" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I109" s="0" t="n">
+      <c r="H109">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I109">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
-      <c r="A110" s="0" t="n">
+    <row r="110" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>126</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>89</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>86</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110">
         <v>170</v>
       </c>
-      <c r="G110" s="0" t="n">
+      <c r="G110">
         <v>8</v>
       </c>
-      <c r="H110" s="0" t="n">
+      <c r="H110">
         <v>1.91</v>
       </c>
-      <c r="I110" s="0" t="n">
+      <c r="I110">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
-      <c r="A111" s="0" t="n">
+    <row r="111" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>127</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>52</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111">
         <v>81</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111">
         <v>81</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111">
         <v>363</v>
       </c>
-      <c r="G111" s="0" t="n">
+      <c r="G111">
         <v>6</v>
       </c>
-      <c r="H111" s="0" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="I111" s="0" t="n">
+      <c r="H111">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="I111">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
-      <c r="A112" s="0" t="n">
+    <row r="112" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>128</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112">
         <v>78</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112">
         <v>78</v>
       </c>
-      <c r="F112" s="0" t="n">
+      <c r="F112">
         <v>354</v>
       </c>
-      <c r="G112" s="0" t="n">
+      <c r="G112">
         <v>84</v>
       </c>
-      <c r="H112" s="0" t="n">
+      <c r="H112">
         <v>4.54</v>
       </c>
-      <c r="I112" s="0" t="n">
+      <c r="I112">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
-      <c r="A113" s="0" t="n">
+    <row r="113" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>129</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>28</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113">
         <v>72</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113">
         <v>70</v>
       </c>
-      <c r="F113" s="0" t="n">
+      <c r="F113">
         <v>558</v>
       </c>
-      <c r="G113" s="0" t="n">
+      <c r="G113">
         <v>51</v>
       </c>
-      <c r="H113" s="0" t="n">
+      <c r="H113">
         <v>7.75</v>
       </c>
-      <c r="I113" s="0" t="n">
+      <c r="I113">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
-      <c r="A114" s="0" t="n">
+    <row r="114" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>130</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114">
         <v>69</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114">
         <v>69</v>
       </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114">
         <v>727</v>
       </c>
-      <c r="G114" s="0" t="n">
+      <c r="G114">
         <v>75</v>
       </c>
-      <c r="H114" s="0" t="n">
+      <c r="H114">
         <v>10.54</v>
       </c>
-      <c r="I114" s="0" t="n">
+      <c r="I114">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
-      <c r="A115" s="0" t="n">
+    <row r="115" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>30</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115">
         <v>68</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115">
         <v>64</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115">
         <v>540</v>
       </c>
-      <c r="G115" s="0" t="n">
+      <c r="G115">
         <v>31</v>
       </c>
-      <c r="H115" s="0" t="n">
+      <c r="H115">
         <v>7.94</v>
       </c>
-      <c r="I115" s="0" t="n">
+      <c r="I115">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
-      <c r="A116" s="0" t="n">
+    <row r="116" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116">
         <v>67</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116">
         <v>67</v>
       </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116">
         <v>305</v>
       </c>
-      <c r="G116" s="0" t="n">
+      <c r="G116">
         <v>47</v>
       </c>
-      <c r="H116" s="0" t="n">
+      <c r="H116">
         <v>4.55</v>
       </c>
-      <c r="I116" s="0" t="n">
+      <c r="I116">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
-      <c r="A117" s="0" t="n">
+    <row r="117" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>52</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117">
         <v>65</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117">
         <v>49</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117">
         <v>258</v>
       </c>
-      <c r="G117" s="0" t="n">
+      <c r="G117">
         <v>10</v>
       </c>
-      <c r="H117" s="0" t="n">
+      <c r="H117">
         <v>3.97</v>
       </c>
-      <c r="I117" s="0" t="n">
+      <c r="I117">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
-      <c r="A118" s="0" t="n">
+    <row r="118" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>52</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118">
         <v>63</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118">
         <v>62</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118">
         <v>635</v>
       </c>
-      <c r="G118" s="0" t="n">
+      <c r="G118">
         <v>20</v>
       </c>
-      <c r="H118" s="0" t="n">
+      <c r="H118">
         <v>10.08</v>
       </c>
-      <c r="I118" s="0" t="n">
+      <c r="I118">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
-      <c r="A119" s="0" t="n">
+    <row r="119" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>135</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>52</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119">
         <v>60</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119">
         <v>60</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119">
         <v>885</v>
       </c>
-      <c r="G119" s="0" t="n">
+      <c r="G119">
         <v>52</v>
       </c>
-      <c r="H119" s="0" t="n">
+      <c r="H119">
         <v>14.75</v>
       </c>
-      <c r="I119" s="0" t="n">
+      <c r="I119">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
-      <c r="A120" s="0" t="n">
+    <row r="120" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>136</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>19</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120">
         <v>57</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120">
         <v>57</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120">
         <v>363</v>
       </c>
-      <c r="G120" s="0" t="n">
+      <c r="G120">
         <v>27</v>
       </c>
-      <c r="H120" s="0" t="n">
+      <c r="H120">
         <v>6.37</v>
       </c>
-      <c r="I120" s="0" t="n">
+      <c r="I120">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
-      <c r="A121" s="0" t="n">
+    <row r="121" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>137</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>52</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121">
         <v>56</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121">
         <v>56</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121">
         <v>143</v>
       </c>
-      <c r="G121" s="0" t="n">
+      <c r="G121">
         <v>9</v>
       </c>
-      <c r="H121" s="0" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I121" s="0" t="n">
+      <c r="H121">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I121">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
-      <c r="A122" s="0" t="n">
+    <row r="122" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>138</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" t="s">
         <v>16</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122">
         <v>47</v>
       </c>
-      <c r="E122" s="0" t="n">
+      <c r="E122">
         <v>47</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122">
         <v>169</v>
       </c>
-      <c r="G122" s="0" t="n">
+      <c r="G122">
         <v>29</v>
       </c>
-      <c r="H122" s="0" t="n">
+      <c r="H122">
         <v>3.6</v>
       </c>
-      <c r="I122" s="0" t="n">
+      <c r="I122">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
-      <c r="A123" s="0" t="n">
+    <row r="123" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>139</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123">
         <v>45</v>
       </c>
-      <c r="E123" s="0" t="n">
+      <c r="E123">
         <v>43</v>
       </c>
-      <c r="F123" s="0" t="n">
+      <c r="F123">
         <v>86</v>
       </c>
-      <c r="G123" s="0" t="n">
+      <c r="G123">
         <v>9</v>
       </c>
-      <c r="H123" s="0" t="n">
+      <c r="H123">
         <v>1.91</v>
       </c>
-      <c r="I123" s="0" t="n">
+      <c r="I123">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
-      <c r="A124" s="0" t="n">
+    <row r="124" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>140</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>52</v>
       </c>
-      <c r="D124" s="0" t="n">
+      <c r="D124">
         <v>45</v>
       </c>
-      <c r="E124" s="0" t="n">
+      <c r="E124">
         <v>45</v>
       </c>
-      <c r="F124" s="0" t="n">
+      <c r="F124">
         <v>95</v>
       </c>
-      <c r="G124" s="0" t="n">
+      <c r="G124">
         <v>10</v>
       </c>
-      <c r="H124" s="0" t="n">
+      <c r="H124">
         <v>2.11</v>
       </c>
-      <c r="I124" s="0" t="n">
+      <c r="I124">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
-      <c r="A125" s="0" t="n">
+    <row r="125" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" t="s">
         <v>141</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" t="s">
         <v>30</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125">
         <v>41</v>
       </c>
-      <c r="E125" s="0" t="n">
+      <c r="E125">
         <v>41</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125">
         <v>51</v>
       </c>
-      <c r="G125" s="0" t="n">
+      <c r="G125">
         <v>7</v>
       </c>
-      <c r="H125" s="0" t="n">
+      <c r="H125">
         <v>1.24</v>
       </c>
-      <c r="I125" s="0" t="n">
+      <c r="I125">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
-      <c r="A126" s="0" t="n">
+    <row r="126" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>142</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" t="s">
         <v>52</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126">
         <v>41</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126">
         <v>38</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="F126">
         <v>216</v>
       </c>
-      <c r="G126" s="0" t="n">
+      <c r="G126">
         <v>26</v>
       </c>
-      <c r="H126" s="0" t="n">
+      <c r="H126">
         <v>5.27</v>
       </c>
-      <c r="I126" s="0" t="n">
+      <c r="I126">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
-      <c r="A127" s="0" t="n">
+    <row r="127" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" t="s">
         <v>143</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" t="s">
         <v>52</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127">
         <v>40</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127">
         <v>40</v>
       </c>
-      <c r="F127" s="0" t="n">
+      <c r="F127">
         <v>89</v>
       </c>
-      <c r="G127" s="0" t="n">
+      <c r="G127">
         <v>13</v>
       </c>
-      <c r="H127" s="0" t="n">
+      <c r="H127">
         <v>2.23</v>
       </c>
-      <c r="I127" s="0" t="n">
+      <c r="I127">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
-      <c r="A128" s="0" t="n">
+    <row r="128" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" t="s">
         <v>144</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>52</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128">
         <v>40</v>
       </c>
-      <c r="E128" s="0" t="n">
+      <c r="E128">
         <v>39</v>
       </c>
-      <c r="F128" s="0" t="n">
+      <c r="F128">
         <v>125</v>
       </c>
-      <c r="G128" s="0" t="n">
+      <c r="G128">
         <v>24</v>
       </c>
-      <c r="H128" s="0" t="n">
+      <c r="H128">
         <v>3.13</v>
       </c>
-      <c r="I128" s="0" t="n">
+      <c r="I128">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
-      <c r="A129" s="0" t="n">
+    <row r="129" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" t="s">
         <v>145</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129">
         <v>36</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129">
         <v>36</v>
       </c>
-      <c r="F129" s="0" t="n">
+      <c r="F129">
         <v>223</v>
       </c>
-      <c r="G129" s="0" t="n">
+      <c r="G129">
         <v>35</v>
       </c>
-      <c r="H129" s="0" t="n">
+      <c r="H129">
         <v>6.19</v>
       </c>
-      <c r="I129" s="0" t="n">
+      <c r="I129">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
-      <c r="A130" s="0" t="n">
+    <row r="130" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" t="s">
         <v>146</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130">
         <v>34</v>
       </c>
-      <c r="E130" s="0" t="n">
+      <c r="E130">
         <v>34</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130">
         <v>37</v>
       </c>
-      <c r="G130" s="0" t="n">
+      <c r="G130">
         <v>6</v>
       </c>
-      <c r="H130" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I130" s="0" t="n">
+      <c r="H130">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I130">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
-      <c r="A131" s="0" t="n">
+    <row r="131" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" t="s">
         <v>147</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131">
         <v>33</v>
       </c>
-      <c r="E131" s="0" t="n">
+      <c r="E131">
         <v>33</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131">
         <v>105</v>
       </c>
-      <c r="G131" s="0" t="n">
+      <c r="G131">
         <v>18</v>
       </c>
-      <c r="H131" s="0" t="n">
+      <c r="H131">
         <v>3.18</v>
       </c>
-      <c r="I131" s="0" t="n">
+      <c r="I131">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
-      <c r="A132" s="0" t="n">
+    <row r="132" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" t="s">
         <v>148</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" t="s">
         <v>52</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132">
         <v>33</v>
       </c>
-      <c r="E132" s="0" t="n">
+      <c r="E132">
         <v>33</v>
       </c>
-      <c r="F132" s="0" t="n">
+      <c r="F132">
         <v>56</v>
       </c>
-      <c r="G132" s="0" t="n">
+      <c r="G132">
         <v>7</v>
       </c>
-      <c r="H132" s="0" t="n">
+      <c r="H132">
         <v>1.7</v>
       </c>
-      <c r="I132" s="0" t="n">
+      <c r="I132">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
-      <c r="A133" s="0" t="n">
+    <row r="133" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" t="s">
         <v>149</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" t="s">
         <v>10</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133">
         <v>33</v>
       </c>
-      <c r="E133" s="0" t="n">
+      <c r="E133">
         <v>31</v>
       </c>
-      <c r="F133" s="0" t="n">
+      <c r="F133">
         <v>54</v>
       </c>
-      <c r="G133" s="0" t="n">
+      <c r="G133">
         <v>1</v>
       </c>
-      <c r="H133" s="0" t="n">
+      <c r="H133">
         <v>1.64</v>
       </c>
-      <c r="I133" s="0" t="n">
+      <c r="I133">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
-      <c r="A134" s="0" t="n">
+    <row r="134" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" t="s">
         <v>150</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" t="s">
         <v>52</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134">
         <v>32</v>
       </c>
-      <c r="E134" s="0" t="n">
+      <c r="E134">
         <v>30</v>
       </c>
-      <c r="F134" s="0" t="n">
+      <c r="F134">
         <v>451</v>
       </c>
-      <c r="G134" s="0" t="n">
+      <c r="G134">
         <v>15</v>
       </c>
-      <c r="H134" s="0" t="n">
+      <c r="H134">
         <v>14.09</v>
       </c>
-      <c r="I134" s="0" t="n">
+      <c r="I134">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
-      <c r="A135" s="0" t="n">
+    <row r="135" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" t="s">
         <v>151</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" t="s">
         <v>10</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135">
         <v>31</v>
       </c>
-      <c r="E135" s="0" t="n">
+      <c r="E135">
         <v>31</v>
       </c>
-      <c r="F135" s="0" t="n">
+      <c r="F135">
         <v>187</v>
       </c>
-      <c r="G135" s="0" t="n">
+      <c r="G135">
         <v>19</v>
       </c>
-      <c r="H135" s="0" t="n">
+      <c r="H135">
         <v>6.03</v>
       </c>
-      <c r="I135" s="0" t="n">
+      <c r="I135">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
-      <c r="A136" s="0" t="n">
+    <row r="136" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" t="s">
         <v>152</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" t="s">
         <v>30</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136">
         <v>31</v>
       </c>
-      <c r="E136" s="0" t="n">
+      <c r="E136">
         <v>31</v>
       </c>
-      <c r="F136" s="0" t="n">
+      <c r="F136">
         <v>45</v>
       </c>
-      <c r="G136" s="0" t="n">
+      <c r="G136">
         <v>2</v>
       </c>
-      <c r="H136" s="0" t="n">
+      <c r="H136">
         <v>1.45</v>
       </c>
-      <c r="I136" s="0" t="n">
+      <c r="I136">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
-      <c r="A137" s="0" t="n">
+    <row r="137" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" t="s">
         <v>153</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" t="s">
         <v>52</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137">
         <v>29</v>
       </c>
-      <c r="E137" s="0" t="n">
+      <c r="E137">
         <v>29</v>
       </c>
-      <c r="F137" s="0" t="n">
+      <c r="F137">
         <v>173</v>
       </c>
-      <c r="G137" s="0" t="n">
+      <c r="G137">
         <v>15</v>
       </c>
-      <c r="H137" s="0" t="n">
+      <c r="H137">
         <v>5.97</v>
       </c>
-      <c r="I137" s="0" t="n">
+      <c r="I137">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
-      <c r="A138" s="0" t="n">
+    <row r="138" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" t="s">
         <v>154</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" t="s">
         <v>10</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138">
         <v>28</v>
       </c>
-      <c r="E138" s="0" t="n">
+      <c r="E138">
         <v>28</v>
       </c>
-      <c r="F138" s="0" t="n">
+      <c r="F138">
         <v>120</v>
       </c>
-      <c r="G138" s="0" t="n">
+      <c r="G138">
         <v>58</v>
       </c>
-      <c r="H138" s="0" t="n">
+      <c r="H138">
         <v>4.29</v>
       </c>
-      <c r="I138" s="0" t="n">
+      <c r="I138">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
-      <c r="A139" s="0" t="n">
+    <row r="139" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" t="s">
         <v>155</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" t="s">
         <v>30</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139">
         <v>28</v>
       </c>
-      <c r="E139" s="0" t="n">
+      <c r="E139">
         <v>28</v>
       </c>
-      <c r="F139" s="0" t="n">
+      <c r="F139">
         <v>159</v>
       </c>
-      <c r="G139" s="0" t="n">
+      <c r="G139">
         <v>12</v>
       </c>
-      <c r="H139" s="0" t="n">
+      <c r="H139">
         <v>5.68</v>
       </c>
-      <c r="I139" s="0" t="n">
+      <c r="I139">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
-      <c r="A140" s="0" t="n">
+    <row r="140" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" t="s">
         <v>156</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140">
         <v>25</v>
       </c>
-      <c r="E140" s="0" t="n">
+      <c r="E140">
         <v>24</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140">
         <v>73</v>
       </c>
-      <c r="G140" s="0" t="n">
+      <c r="G140">
         <v>7</v>
       </c>
-      <c r="H140" s="0" t="n">
+      <c r="H140">
         <v>2.92</v>
       </c>
-      <c r="I140" s="0" t="n">
+      <c r="I140">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
-      <c r="A141" s="0" t="n">
+    <row r="141" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" t="s">
         <v>157</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" t="s">
         <v>52</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141">
         <v>23</v>
       </c>
-      <c r="E141" s="0" t="n">
+      <c r="E141">
         <v>22</v>
       </c>
-      <c r="F141" s="0" t="n">
+      <c r="F141">
         <v>160</v>
       </c>
-      <c r="G141" s="0" t="n">
+      <c r="G141">
         <v>6</v>
       </c>
-      <c r="H141" s="0" t="n">
+      <c r="H141">
         <v>6.96</v>
       </c>
-      <c r="I141" s="0" t="n">
+      <c r="I141">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
-      <c r="A142" s="0" t="n">
+    <row r="142" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" t="s">
         <v>158</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" t="s">
         <v>10</v>
       </c>
-      <c r="D142" s="0" t="n">
+      <c r="D142">
         <v>20</v>
       </c>
-      <c r="E142" s="0" t="n">
+      <c r="E142">
         <v>20</v>
       </c>
-      <c r="F142" s="0" t="n">
+      <c r="F142">
         <v>81</v>
       </c>
-      <c r="G142" s="0" t="n">
+      <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142" s="0" t="n">
+      <c r="H142">
         <v>4.05</v>
       </c>
-      <c r="I142" s="0" t="n">
+      <c r="I142">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
-      <c r="A143" s="0" t="n">
+    <row r="143" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" t="s">
         <v>159</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" t="s">
         <v>52</v>
       </c>
-      <c r="D143" s="0" t="n">
+      <c r="D143">
         <v>17</v>
       </c>
-      <c r="E143" s="0" t="n">
+      <c r="E143">
         <v>17</v>
       </c>
-      <c r="F143" s="0" t="n">
+      <c r="F143">
         <v>81</v>
       </c>
-      <c r="G143" s="0" t="n">
+      <c r="G143">
         <v>10</v>
       </c>
-      <c r="H143" s="0" t="n">
+      <c r="H143">
         <v>4.76</v>
       </c>
-      <c r="I143" s="0" t="n">
+      <c r="I143">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
-      <c r="A144" s="0" t="n">
+    <row r="144" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" t="s">
         <v>160</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" t="s">
         <v>30</v>
       </c>
-      <c r="D144" s="0" t="n">
+      <c r="D144">
         <v>16</v>
       </c>
-      <c r="E144" s="0" t="n">
+      <c r="E144">
         <v>16</v>
       </c>
-      <c r="F144" s="0" t="n">
+      <c r="F144">
         <v>46</v>
       </c>
-      <c r="G144" s="0" t="n">
+      <c r="G144">
         <v>3</v>
       </c>
-      <c r="H144" s="0" t="n">
+      <c r="H144">
         <v>2.88</v>
       </c>
-      <c r="I144" s="0" t="n">
+      <c r="I144">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
-      <c r="A145" s="0" t="n">
+    <row r="145" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" t="s">
         <v>161</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" t="s">
         <v>16</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145">
         <v>16</v>
       </c>
-      <c r="E145" s="0" t="n">
+      <c r="E145">
         <v>16</v>
       </c>
-      <c r="F145" s="0" t="n">
+      <c r="F145">
         <v>139</v>
       </c>
-      <c r="G145" s="0" t="n">
+      <c r="G145">
         <v>8</v>
       </c>
-      <c r="H145" s="0" t="n">
+      <c r="H145">
         <v>8.69</v>
       </c>
-      <c r="I145" s="0" t="n">
+      <c r="I145">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
-      <c r="A146" s="0" t="n">
+    <row r="146" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" t="s">
         <v>162</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" t="s">
         <v>30</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146">
         <v>15</v>
       </c>
-      <c r="E146" s="0" t="n">
+      <c r="E146">
         <v>15</v>
       </c>
-      <c r="F146" s="0" t="n">
+      <c r="F146">
         <v>97</v>
       </c>
-      <c r="G146" s="0" t="n">
+      <c r="G146">
         <v>6</v>
       </c>
-      <c r="H146" s="0" t="n">
+      <c r="H146">
         <v>6.47</v>
       </c>
-      <c r="I146" s="0" t="n">
+      <c r="I146">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
-      <c r="A147" s="0" t="n">
+    <row r="147" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" t="s">
         <v>163</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" t="s">
         <v>52</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147">
         <v>13</v>
       </c>
-      <c r="E147" s="0" t="n">
+      <c r="E147">
         <v>13</v>
       </c>
-      <c r="F147" s="0" t="n">
+      <c r="F147">
         <v>182</v>
       </c>
-      <c r="G147" s="0" t="n">
+      <c r="G147">
         <v>8</v>
       </c>
-      <c r="H147" s="0" t="n">
+      <c r="H147">
         <v>14</v>
       </c>
-      <c r="I147" s="0" t="n">
+      <c r="I147">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
-      <c r="A148" s="0" t="n">
+    <row r="148" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" t="s">
         <v>164</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" t="s">
         <v>52</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148">
         <v>13</v>
       </c>
-      <c r="E148" s="0" t="n">
+      <c r="E148">
         <v>13</v>
       </c>
-      <c r="F148" s="0" t="n">
+      <c r="F148">
         <v>11</v>
       </c>
-      <c r="G148" s="0" t="n">
+      <c r="G148">
         <v>2</v>
       </c>
-      <c r="H148" s="0" t="n">
+      <c r="H148">
         <v>0.85</v>
       </c>
-      <c r="I148" s="0" t="n">
+      <c r="I148">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
-      <c r="A149" s="0" t="n">
+    <row r="149" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" t="s">
         <v>165</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" t="s">
         <v>28</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149">
         <v>12</v>
       </c>
-      <c r="E149" s="0" t="n">
+      <c r="E149">
         <v>12</v>
       </c>
-      <c r="F149" s="0" t="n">
+      <c r="F149">
         <v>25</v>
       </c>
-      <c r="G149" s="0" t="n">
+      <c r="G149">
         <v>5</v>
       </c>
-      <c r="H149" s="0" t="n">
+      <c r="H149">
         <v>2.08</v>
       </c>
-      <c r="I149" s="0" t="n">
+      <c r="I149">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
-      <c r="A150" s="0" t="n">
+    <row r="150" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" t="s">
         <v>166</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150">
         <v>11</v>
       </c>
-      <c r="E150" s="0" t="n">
+      <c r="E150">
         <v>10</v>
       </c>
-      <c r="F150" s="0" t="n">
+      <c r="F150">
         <v>106</v>
       </c>
-      <c r="G150" s="0" t="n">
+      <c r="G150">
         <v>6</v>
       </c>
-      <c r="H150" s="0" t="n">
+      <c r="H150">
         <v>9.64</v>
       </c>
-      <c r="I150" s="0" t="n">
+      <c r="I150">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
-      <c r="A151" s="0" t="n">
+    <row r="151" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" t="s">
         <v>167</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" t="s">
         <v>52</v>
       </c>
-      <c r="D151" s="0" t="n">
+      <c r="D151">
         <v>11</v>
       </c>
-      <c r="E151" s="0" t="n">
+      <c r="E151">
         <v>11</v>
       </c>
-      <c r="F151" s="0" t="n">
+      <c r="F151">
         <v>46</v>
       </c>
-      <c r="G151" s="0" t="n">
+      <c r="G151">
         <v>0</v>
       </c>
-      <c r="H151" s="0" t="n">
+      <c r="H151">
         <v>4.18</v>
       </c>
-      <c r="I151" s="0" t="n">
+      <c r="I151">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
-      <c r="A152" s="0" t="n">
+    <row r="152" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" t="s">
         <v>168</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" t="s">
         <v>52</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152">
         <v>11</v>
       </c>
-      <c r="E152" s="0" t="n">
+      <c r="E152">
         <v>11</v>
       </c>
-      <c r="F152" s="0" t="n">
+      <c r="F152">
         <v>72</v>
       </c>
-      <c r="G152" s="0" t="n">
+      <c r="G152">
         <v>0</v>
       </c>
-      <c r="H152" s="0" t="n">
+      <c r="H152">
         <v>6.55</v>
       </c>
-      <c r="I152" s="0" t="n">
+      <c r="I152">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
-      <c r="A153" s="0" t="n">
+    <row r="153" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" t="s">
         <v>169</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" t="s">
         <v>30</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D153">
         <v>11</v>
       </c>
-      <c r="E153" s="0" t="n">
+      <c r="E153">
         <v>11</v>
       </c>
-      <c r="F153" s="0" t="n">
+      <c r="F153">
         <v>16</v>
       </c>
-      <c r="G153" s="0" t="n">
+      <c r="G153">
         <v>3</v>
       </c>
-      <c r="H153" s="0" t="n">
+      <c r="H153">
         <v>1.45</v>
       </c>
-      <c r="I153" s="0" t="n">
+      <c r="I153">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
-      <c r="A154" s="0" t="n">
+    <row r="154" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" t="s">
         <v>170</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" t="s">
         <v>30</v>
       </c>
-      <c r="D154" s="0" t="n">
+      <c r="D154">
         <v>11</v>
       </c>
-      <c r="E154" s="0" t="n">
+      <c r="E154">
         <v>11</v>
       </c>
-      <c r="F154" s="0" t="n">
+      <c r="F154">
         <v>31</v>
       </c>
-      <c r="G154" s="0" t="n">
+      <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154" s="0" t="n">
+      <c r="H154">
         <v>2.82</v>
       </c>
-      <c r="I154" s="0" t="n">
+      <c r="I154">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
-      <c r="A155" s="0" t="n">
+    <row r="155" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" t="s">
         <v>171</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" t="s">
         <v>30</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155">
         <v>10</v>
       </c>
-      <c r="E155" s="0" t="n">
+      <c r="E155">
         <v>10</v>
       </c>
-      <c r="F155" s="0" t="n">
+      <c r="F155">
         <v>27</v>
       </c>
-      <c r="G155" s="0" t="n">
+      <c r="G155">
         <v>5</v>
       </c>
-      <c r="H155" s="0" t="n">
+      <c r="H155">
         <v>2.7</v>
       </c>
-      <c r="I155" s="0" t="n">
+      <c r="I155">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
-      <c r="A156" s="0" t="n">
+    <row r="156" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" t="s">
         <v>172</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" t="s">
         <v>52</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156">
         <v>10</v>
       </c>
-      <c r="E156" s="0" t="n">
+      <c r="E156">
         <v>10</v>
       </c>
-      <c r="F156" s="0" t="n">
+      <c r="F156">
         <v>55</v>
       </c>
-      <c r="G156" s="0" t="n">
+      <c r="G156">
         <v>2</v>
       </c>
-      <c r="H156" s="0" t="n">
+      <c r="H156">
         <v>5.5</v>
       </c>
-      <c r="I156" s="0" t="n">
+      <c r="I156">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
-      <c r="A157" s="0" t="n">
+    <row r="157" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" t="s">
         <v>173</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="0" t="n">
+      <c r="D157">
         <v>9</v>
       </c>
-      <c r="E157" s="0" t="n">
+      <c r="E157">
         <v>9</v>
       </c>
-      <c r="F157" s="0" t="n">
+      <c r="F157">
         <v>55</v>
       </c>
-      <c r="G157" s="0" t="n">
+      <c r="G157">
         <v>10</v>
       </c>
-      <c r="H157" s="0" t="n">
+      <c r="H157">
         <v>6.11</v>
       </c>
-      <c r="I157" s="0" t="n">
+      <c r="I157">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
-      <c r="A158" s="0" t="n">
+    <row r="158" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" t="s">
         <v>174</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" t="s">
         <v>52</v>
       </c>
-      <c r="D158" s="0" t="n">
+      <c r="D158">
         <v>9</v>
       </c>
-      <c r="E158" s="0" t="n">
+      <c r="E158">
         <v>9</v>
       </c>
-      <c r="F158" s="0" t="n">
+      <c r="F158">
         <v>55</v>
       </c>
-      <c r="G158" s="0" t="n">
+      <c r="G158">
         <v>0</v>
       </c>
-      <c r="H158" s="0" t="n">
+      <c r="H158">
         <v>6.11</v>
       </c>
-      <c r="I158" s="0" t="n">
+      <c r="I158">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
-      <c r="A159" s="0" t="n">
+    <row r="159" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" t="s">
         <v>175</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" t="s">
         <v>52</v>
       </c>
-      <c r="D159" s="0" t="n">
+      <c r="D159">
         <v>9</v>
       </c>
-      <c r="E159" s="0" t="n">
+      <c r="E159">
         <v>9</v>
       </c>
-      <c r="F159" s="0" t="n">
+      <c r="F159">
         <v>45</v>
       </c>
-      <c r="G159" s="0" t="n">
+      <c r="G159">
         <v>1</v>
       </c>
-      <c r="H159" s="0" t="n">
+      <c r="H159">
         <v>5</v>
       </c>
-      <c r="I159" s="0" t="n">
+      <c r="I159">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
-      <c r="A160" s="0" t="n">
+    <row r="160" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" t="s">
         <v>176</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160">
         <v>8</v>
       </c>
-      <c r="E160" s="0" t="n">
+      <c r="E160">
         <v>8</v>
       </c>
-      <c r="F160" s="0" t="n">
+      <c r="F160">
         <v>26</v>
       </c>
-      <c r="G160" s="0" t="n">
+      <c r="G160">
         <v>0</v>
       </c>
-      <c r="H160" s="0" t="n">
+      <c r="H160">
         <v>3.25</v>
       </c>
-      <c r="I160" s="0" t="n">
+      <c r="I160">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
-      <c r="A161" s="0" t="n">
+    <row r="161" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" t="s">
         <v>177</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" t="s">
         <v>52</v>
       </c>
-      <c r="D161" s="0" t="n">
+      <c r="D161">
         <v>8</v>
       </c>
-      <c r="E161" s="0" t="n">
+      <c r="E161">
         <v>8</v>
       </c>
-      <c r="F161" s="0" t="n">
+      <c r="F161">
         <v>60</v>
       </c>
-      <c r="G161" s="0" t="n">
+      <c r="G161">
         <v>1</v>
       </c>
-      <c r="H161" s="0" t="n">
+      <c r="H161">
         <v>7.5</v>
       </c>
-      <c r="I161" s="0" t="n">
+      <c r="I161">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
-      <c r="A162" s="0" t="n">
+    <row r="162" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" t="s">
         <v>178</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" t="s">
         <v>52</v>
       </c>
-      <c r="D162" s="0" t="n">
+      <c r="D162">
         <v>7</v>
       </c>
-      <c r="E162" s="0" t="n">
+      <c r="E162">
         <v>7</v>
       </c>
-      <c r="F162" s="0" t="n">
+      <c r="F162">
         <v>42</v>
       </c>
-      <c r="G162" s="0" t="n">
+      <c r="G162">
         <v>1</v>
       </c>
-      <c r="H162" s="0" t="n">
+      <c r="H162">
         <v>6</v>
       </c>
-      <c r="I162" s="0" t="n">
+      <c r="I162">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
-      <c r="A163" s="0" t="n">
+    <row r="163" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" t="s">
         <v>179</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" t="s">
         <v>52</v>
       </c>
-      <c r="D163" s="0" t="n">
+      <c r="D163">
         <v>7</v>
       </c>
-      <c r="E163" s="0" t="n">
+      <c r="E163">
         <v>7</v>
       </c>
-      <c r="F163" s="0" t="n">
+      <c r="F163">
         <v>30</v>
       </c>
-      <c r="G163" s="0" t="n">
+      <c r="G163">
         <v>2</v>
       </c>
-      <c r="H163" s="0" t="n">
+      <c r="H163">
         <v>4.29</v>
       </c>
-      <c r="I163" s="0" t="n">
+      <c r="I163">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
-      <c r="A164" s="0" t="n">
+    <row r="164" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" t="s">
         <v>180</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" t="s">
         <v>30</v>
       </c>
-      <c r="D164" s="0" t="n">
+      <c r="D164">
         <v>6</v>
       </c>
-      <c r="E164" s="0" t="n">
+      <c r="E164">
         <v>6</v>
       </c>
-      <c r="F164" s="0" t="n">
+      <c r="F164">
         <v>7</v>
       </c>
-      <c r="G164" s="0" t="n">
+      <c r="G164">
         <v>1</v>
       </c>
-      <c r="H164" s="0" t="n">
+      <c r="H164">
         <v>1.17</v>
       </c>
-      <c r="I164" s="0" t="n">
+      <c r="I164">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
-      <c r="A165" s="0" t="n">
+    <row r="165" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" t="s">
         <v>181</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" t="s">
         <v>30</v>
       </c>
-      <c r="D165" s="0" t="n">
+      <c r="D165">
         <v>6</v>
       </c>
-      <c r="E165" s="0" t="n">
+      <c r="E165">
         <v>6</v>
       </c>
-      <c r="F165" s="0" t="n">
+      <c r="F165">
         <v>29</v>
       </c>
-      <c r="G165" s="0" t="n">
+      <c r="G165">
         <v>0</v>
       </c>
-      <c r="H165" s="0" t="n">
+      <c r="H165">
         <v>4.83</v>
       </c>
-      <c r="I165" s="0" t="n">
+      <c r="I165">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
-      <c r="A166" s="0" t="n">
+    <row r="166" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" t="s">
         <v>182</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" t="s">
         <v>52</v>
       </c>
-      <c r="D166" s="0" t="n">
+      <c r="D166">
         <v>6</v>
       </c>
-      <c r="E166" s="0" t="n">
+      <c r="E166">
         <v>6</v>
       </c>
-      <c r="F166" s="0" t="n">
+      <c r="F166">
         <v>49</v>
       </c>
-      <c r="G166" s="0" t="n">
+      <c r="G166">
         <v>0</v>
       </c>
-      <c r="H166" s="0" t="n">
+      <c r="H166">
         <v>8.17</v>
       </c>
-      <c r="I166" s="0" t="n">
+      <c r="I166">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
-      <c r="A167" s="0" t="n">
+    <row r="167" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" t="s">
         <v>183</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" t="s">
         <v>30</v>
       </c>
-      <c r="D167" s="0" t="n">
+      <c r="D167">
         <v>6</v>
       </c>
-      <c r="E167" s="0" t="n">
+      <c r="E167">
         <v>6</v>
       </c>
-      <c r="F167" s="0" t="n">
+      <c r="F167">
         <v>15</v>
       </c>
-      <c r="G167" s="0" t="n">
+      <c r="G167">
         <v>0</v>
       </c>
-      <c r="H167" s="0" t="n">
+      <c r="H167">
         <v>2.5</v>
       </c>
-      <c r="I167" s="0" t="n">
+      <c r="I167">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
-      <c r="A168" s="0" t="n">
+    <row r="168" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" t="s">
         <v>184</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" t="s">
         <v>52</v>
       </c>
-      <c r="D168" s="0" t="n">
+      <c r="D168">
         <v>6</v>
       </c>
-      <c r="E168" s="0" t="n">
+      <c r="E168">
         <v>6</v>
       </c>
-      <c r="F168" s="0" t="n">
+      <c r="F168">
         <v>37</v>
       </c>
-      <c r="G168" s="0" t="n">
+      <c r="G168">
         <v>0</v>
       </c>
-      <c r="H168" s="0" t="n">
+      <c r="H168">
         <v>6.17</v>
       </c>
-      <c r="I168" s="0" t="n">
+      <c r="I168">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
-      <c r="A169" s="0" t="n">
+    <row r="169" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" t="s">
         <v>185</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" t="s">
         <v>52</v>
       </c>
-      <c r="D169" s="0" t="n">
+      <c r="D169">
         <v>5</v>
       </c>
-      <c r="E169" s="0" t="n">
+      <c r="E169">
         <v>5</v>
       </c>
-      <c r="F169" s="0" t="n">
+      <c r="F169">
         <v>8</v>
       </c>
-      <c r="G169" s="0" t="n">
+      <c r="G169">
         <v>0</v>
       </c>
-      <c r="H169" s="0" t="n">
+      <c r="H169">
         <v>1.6</v>
       </c>
-      <c r="I169" s="0" t="n">
+      <c r="I169">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
-      <c r="A170" s="0" t="n">
+    <row r="170" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" t="s">
         <v>186</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="0" t="n">
+      <c r="D170">
         <v>5</v>
       </c>
-      <c r="E170" s="0" t="n">
+      <c r="E170">
         <v>5</v>
       </c>
-      <c r="F170" s="0" t="n">
+      <c r="F170">
         <v>48</v>
       </c>
-      <c r="G170" s="0" t="n">
+      <c r="G170">
         <v>1</v>
       </c>
-      <c r="H170" s="0" t="n">
+      <c r="H170">
         <v>9.6</v>
       </c>
-      <c r="I170" s="0" t="n">
+      <c r="I170">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
-      <c r="A171" s="0" t="n">
+    <row r="171" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" t="s">
         <v>187</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" t="s">
         <v>30</v>
       </c>
-      <c r="D171" s="0" t="n">
+      <c r="D171">
         <v>4</v>
       </c>
-      <c r="E171" s="0" t="n">
+      <c r="E171">
         <v>4</v>
       </c>
-      <c r="F171" s="0" t="n">
+      <c r="F171">
         <v>20</v>
       </c>
-      <c r="G171" s="0" t="n">
+      <c r="G171">
         <v>0</v>
       </c>
-      <c r="H171" s="0" t="n">
+      <c r="H171">
         <v>5</v>
       </c>
-      <c r="I171" s="0" t="n">
+      <c r="I171">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
-      <c r="A172" s="0" t="n">
+    <row r="172" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" t="s">
         <v>188</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" t="s">
         <v>30</v>
       </c>
-      <c r="D172" s="0" t="n">
+      <c r="D172">
         <v>4</v>
       </c>
-      <c r="E172" s="0" t="n">
+      <c r="E172">
         <v>4</v>
       </c>
-      <c r="F172" s="0" t="n">
+      <c r="F172">
         <v>4</v>
       </c>
-      <c r="G172" s="0" t="n">
+      <c r="G172">
         <v>0</v>
       </c>
-      <c r="H172" s="0" t="n">
+      <c r="H172">
         <v>1</v>
       </c>
-      <c r="I172" s="0" t="n">
+      <c r="I172">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
-      <c r="A173" s="0" t="n">
+    <row r="173" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" t="s">
         <v>189</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" t="s">
         <v>30</v>
       </c>
-      <c r="D173" s="0" t="n">
+      <c r="D173">
         <v>4</v>
       </c>
-      <c r="E173" s="0" t="n">
+      <c r="E173">
         <v>4</v>
       </c>
-      <c r="F173" s="0" t="n">
+      <c r="F173">
         <v>13</v>
       </c>
-      <c r="G173" s="0" t="n">
+      <c r="G173">
         <v>1</v>
       </c>
-      <c r="H173" s="0" t="n">
+      <c r="H173">
         <v>3.25</v>
       </c>
-      <c r="I173" s="0" t="n">
+      <c r="I173">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
-      <c r="A174" s="0" t="n">
+    <row r="174" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" t="s">
         <v>190</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" t="s">
         <v>10</v>
       </c>
-      <c r="D174" s="0" t="n">
+      <c r="D174">
         <v>4</v>
       </c>
-      <c r="E174" s="0" t="n">
+      <c r="E174">
         <v>3</v>
       </c>
-      <c r="F174" s="0" t="n">
+      <c r="F174">
         <v>107</v>
       </c>
-      <c r="G174" s="0" t="n">
+      <c r="G174">
         <v>0</v>
       </c>
-      <c r="H174" s="0" t="n">
+      <c r="H174">
         <v>26.75</v>
       </c>
-      <c r="I174" s="0" t="n">
+      <c r="I174">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
-      <c r="A175" s="0" t="n">
+    <row r="175" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" t="s">
         <v>191</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="0" t="n">
+      <c r="D175">
         <v>3</v>
       </c>
-      <c r="E175" s="0" t="n">
+      <c r="E175">
         <v>3</v>
       </c>
-      <c r="F175" s="0" t="n">
+      <c r="F175">
         <v>31</v>
       </c>
-      <c r="G175" s="0" t="n">
+      <c r="G175">
         <v>3</v>
       </c>
-      <c r="H175" s="0" t="n">
+      <c r="H175">
         <v>10.33</v>
       </c>
-      <c r="I175" s="0" t="n">
+      <c r="I175">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
-      <c r="A176" s="0" t="n">
+    <row r="176" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" t="s">
         <v>192</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" t="s">
         <v>30</v>
       </c>
-      <c r="D176" s="0" t="n">
+      <c r="D176">
         <v>3</v>
       </c>
-      <c r="E176" s="0" t="n">
+      <c r="E176">
         <v>3</v>
       </c>
-      <c r="F176" s="0" t="n">
+      <c r="F176">
         <v>8</v>
       </c>
-      <c r="G176" s="0" t="n">
+      <c r="G176">
         <v>1</v>
       </c>
-      <c r="H176" s="0" t="n">
+      <c r="H176">
         <v>2.67</v>
       </c>
-      <c r="I176" s="0" t="n">
+      <c r="I176">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
-      <c r="A177" s="0" t="n">
+    <row r="177" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" t="s">
         <v>193</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" t="s">
         <v>52</v>
       </c>
-      <c r="D177" s="0" t="n">
+      <c r="D177">
         <v>3</v>
       </c>
-      <c r="E177" s="0" t="n">
+      <c r="E177">
         <v>3</v>
       </c>
-      <c r="F177" s="0" t="n">
+      <c r="F177">
         <v>3</v>
       </c>
-      <c r="G177" s="0" t="n">
+      <c r="G177">
         <v>0</v>
       </c>
-      <c r="H177" s="0" t="n">
+      <c r="H177">
         <v>1</v>
       </c>
-      <c r="I177" s="0" t="n">
+      <c r="I177">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
-      <c r="A178" s="0" t="n">
+    <row r="178" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" t="s">
         <v>194</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" t="s">
         <v>16</v>
       </c>
-      <c r="D178" s="0" t="n">
+      <c r="D178">
         <v>3</v>
       </c>
-      <c r="E178" s="0" t="n">
+      <c r="E178">
         <v>3</v>
       </c>
-      <c r="F178" s="0" t="n">
+      <c r="F178">
         <v>121</v>
       </c>
-      <c r="G178" s="0" t="n">
+      <c r="G178">
         <v>0</v>
       </c>
-      <c r="H178" s="0" t="n">
+      <c r="H178">
         <v>40.33</v>
       </c>
-      <c r="I178" s="0" t="n">
+      <c r="I178">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
-      <c r="A179" s="0" t="n">
+    <row r="179" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" t="s">
         <v>195</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" t="s">
         <v>52</v>
       </c>
-      <c r="D179" s="0" t="n">
+      <c r="D179">
         <v>3</v>
       </c>
-      <c r="E179" s="0" t="n">
+      <c r="E179">
         <v>3</v>
       </c>
-      <c r="F179" s="0" t="n">
+      <c r="F179">
         <v>9</v>
       </c>
-      <c r="G179" s="0" t="n">
+      <c r="G179">
         <v>1</v>
       </c>
-      <c r="H179" s="0" t="n">
+      <c r="H179">
         <v>3</v>
       </c>
-      <c r="I179" s="0" t="n">
+      <c r="I179">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
-      <c r="A180" s="0" t="n">
+    <row r="180" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" t="s">
         <v>196</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" t="s">
         <v>28</v>
       </c>
-      <c r="D180" s="0" t="n">
+      <c r="D180">
         <v>3</v>
       </c>
-      <c r="E180" s="0" t="n">
+      <c r="E180">
         <v>3</v>
       </c>
-      <c r="F180" s="0" t="n">
+      <c r="F180">
         <v>2</v>
       </c>
-      <c r="G180" s="0" t="n">
+      <c r="G180">
         <v>0</v>
       </c>
-      <c r="H180" s="0" t="n">
+      <c r="H180">
         <v>0.67</v>
       </c>
-      <c r="I180" s="0" t="n">
+      <c r="I180">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
-      <c r="A181" s="0" t="n">
+    <row r="181" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" t="s">
         <v>197</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" t="s">
         <v>28</v>
       </c>
-      <c r="D181" s="0" t="n">
+      <c r="D181">
         <v>3</v>
       </c>
-      <c r="E181" s="0" t="n">
+      <c r="E181">
         <v>3</v>
       </c>
-      <c r="F181" s="0" t="n">
+      <c r="F181">
         <v>33</v>
       </c>
-      <c r="G181" s="0" t="n">
+      <c r="G181">
         <v>1</v>
       </c>
-      <c r="H181" s="0" t="n">
+      <c r="H181">
         <v>11</v>
       </c>
-      <c r="I181" s="0" t="n">
+      <c r="I181">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
-      <c r="A182" s="0" t="n">
+    <row r="182" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" t="s">
         <v>198</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="0" t="n">
+      <c r="D182">
         <v>2</v>
       </c>
-      <c r="E182" s="0" t="n">
+      <c r="E182">
         <v>2</v>
       </c>
-      <c r="F182" s="0" t="n">
+      <c r="F182">
         <v>24</v>
       </c>
-      <c r="G182" s="0" t="n">
+      <c r="G182">
         <v>0</v>
       </c>
-      <c r="H182" s="0" t="n">
+      <c r="H182">
         <v>12</v>
       </c>
-      <c r="I182" s="0" t="n">
+      <c r="I182">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
-      <c r="A183" s="0" t="n">
+    <row r="183" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" t="s">
         <v>199</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" t="s">
         <v>28</v>
       </c>
-      <c r="D183" s="0" t="n">
+      <c r="D183">
         <v>2</v>
       </c>
-      <c r="E183" s="0" t="n">
+      <c r="E183">
         <v>2</v>
       </c>
-      <c r="F183" s="0" t="n">
+      <c r="F183">
         <v>39</v>
       </c>
-      <c r="G183" s="0" t="n">
+      <c r="G183">
         <v>0</v>
       </c>
-      <c r="H183" s="0" t="n">
+      <c r="H183">
         <v>19.5</v>
       </c>
-      <c r="I183" s="0" t="n">
+      <c r="I183">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
-      <c r="A184" s="0" t="n">
+    <row r="184" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" t="s">
         <v>200</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" t="s">
         <v>30</v>
       </c>
-      <c r="D184" s="0" t="n">
+      <c r="D184">
         <v>2</v>
       </c>
-      <c r="E184" s="0" t="n">
+      <c r="E184">
         <v>2</v>
       </c>
-      <c r="F184" s="0" t="n">
+      <c r="F184">
         <v>0</v>
       </c>
-      <c r="G184" s="0" t="n">
+      <c r="G184">
         <v>0</v>
       </c>
-      <c r="H184" s="0" t="n">
+      <c r="H184">
         <v>0</v>
       </c>
-      <c r="I184" s="0" t="n">
+      <c r="I184">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
-      <c r="A185" s="0" t="n">
+    <row r="185" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" t="s">
         <v>201</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" t="s">
         <v>30</v>
       </c>
-      <c r="D185" s="0" t="n">
+      <c r="D185">
         <v>2</v>
       </c>
-      <c r="E185" s="0" t="n">
+      <c r="E185">
         <v>2</v>
       </c>
-      <c r="F185" s="0" t="n">
+      <c r="F185">
         <v>5</v>
       </c>
-      <c r="G185" s="0" t="n">
+      <c r="G185">
         <v>0</v>
       </c>
-      <c r="H185" s="0" t="n">
+      <c r="H185">
         <v>2.5</v>
       </c>
-      <c r="I185" s="0" t="n">
+      <c r="I185">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
-      <c r="A186" s="0" t="n">
+    <row r="186" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" t="s">
         <v>202</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" t="s">
         <v>52</v>
       </c>
-      <c r="D186" s="0" t="n">
+      <c r="D186">
         <v>2</v>
       </c>
-      <c r="E186" s="0" t="n">
+      <c r="E186">
         <v>2</v>
       </c>
-      <c r="F186" s="0" t="n">
+      <c r="F186">
         <v>9</v>
       </c>
-      <c r="G186" s="0" t="n">
+      <c r="G186">
         <v>2</v>
       </c>
-      <c r="H186" s="0" t="n">
+      <c r="H186">
         <v>4.5</v>
       </c>
-      <c r="I186" s="0" t="n">
+      <c r="I186">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
-      <c r="A187" s="0" t="n">
+    <row r="187" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" t="s">
         <v>203</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" t="s">
         <v>28</v>
       </c>
-      <c r="D187" s="0" t="n">
+      <c r="D187">
         <v>2</v>
       </c>
-      <c r="E187" s="0" t="n">
+      <c r="E187">
         <v>2</v>
       </c>
-      <c r="F187" s="0" t="n">
+      <c r="F187">
         <v>9</v>
       </c>
-      <c r="G187" s="0" t="n">
+      <c r="G187">
         <v>1</v>
       </c>
-      <c r="H187" s="0" t="n">
+      <c r="H187">
         <v>4.5</v>
       </c>
-      <c r="I187" s="0" t="n">
+      <c r="I187">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
-      <c r="A188" s="0" t="n">
+    <row r="188" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" t="s">
         <v>204</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" t="s">
         <v>52</v>
       </c>
-      <c r="D188" s="0" t="n">
+      <c r="D188">
         <v>2</v>
       </c>
-      <c r="E188" s="0" t="n">
+      <c r="E188">
         <v>2</v>
       </c>
-      <c r="F188" s="0" t="n">
+      <c r="F188">
         <v>62</v>
       </c>
-      <c r="G188" s="0" t="n">
+      <c r="G188">
         <v>0</v>
       </c>
-      <c r="H188" s="0" t="n">
+      <c r="H188">
         <v>31</v>
       </c>
-      <c r="I188" s="0" t="n">
+      <c r="I188">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
-      <c r="A189" s="0" t="n">
+    <row r="189" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" t="s">
         <v>205</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" t="s">
         <v>52</v>
       </c>
-      <c r="D189" s="0" t="n">
+      <c r="D189">
         <v>2</v>
       </c>
-      <c r="E189" s="0" t="n">
+      <c r="E189">
         <v>2</v>
       </c>
-      <c r="F189" s="0" t="n">
+      <c r="F189">
         <v>0</v>
       </c>
-      <c r="G189" s="0" t="n">
+      <c r="G189">
         <v>0</v>
       </c>
-      <c r="H189" s="0" t="n">
+      <c r="H189">
         <v>0</v>
       </c>
-      <c r="I189" s="0" t="n">
+      <c r="I189">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
-      <c r="A190" s="0" t="n">
+    <row r="190" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" t="s">
         <v>206</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" t="s">
         <v>16</v>
       </c>
-      <c r="D190" s="0" t="n">
+      <c r="D190">
         <v>2</v>
       </c>
-      <c r="E190" s="0" t="n">
+      <c r="E190">
         <v>2</v>
       </c>
-      <c r="F190" s="0" t="n">
+      <c r="F190">
         <v>18</v>
       </c>
-      <c r="G190" s="0" t="n">
+      <c r="G190">
         <v>0</v>
       </c>
-      <c r="H190" s="0" t="n">
+      <c r="H190">
         <v>9</v>
       </c>
-      <c r="I190" s="0" t="n">
+      <c r="I190">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
-      <c r="A191" s="0" t="n">
+    <row r="191" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" t="s">
         <v>10</v>
       </c>
-      <c r="D191" s="0" t="n">
+      <c r="D191">
         <v>2</v>
       </c>
-      <c r="E191" s="0" t="n">
+      <c r="E191">
         <v>2</v>
       </c>
-      <c r="F191" s="0" t="n">
+      <c r="F191">
         <v>0</v>
       </c>
-      <c r="G191" s="0" t="n">
+      <c r="G191">
         <v>0</v>
       </c>
-      <c r="H191" s="0" t="n">
+      <c r="H191">
         <v>0</v>
       </c>
-      <c r="I191" s="0" t="n">
+      <c r="I191">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
-      <c r="A192" s="0" t="n">
+    <row r="192" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" t="s">
         <v>208</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" t="s">
         <v>28</v>
       </c>
-      <c r="D192" s="0" t="n">
+      <c r="D192">
         <v>2</v>
       </c>
-      <c r="E192" s="0" t="n">
+      <c r="E192">
         <v>2</v>
       </c>
-      <c r="F192" s="0" t="n">
+      <c r="F192">
         <v>2</v>
       </c>
-      <c r="G192" s="0" t="n">
+      <c r="G192">
         <v>0</v>
       </c>
-      <c r="H192" s="0" t="n">
+      <c r="H192">
         <v>1</v>
       </c>
-      <c r="I192" s="0" t="n">
+      <c r="I192">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
-      <c r="A193" s="0" t="n">
+    <row r="193" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" t="s">
         <v>209</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" t="s">
         <v>30</v>
       </c>
-      <c r="D193" s="0" t="n">
+      <c r="D193">
         <v>2</v>
       </c>
-      <c r="E193" s="0" t="n">
+      <c r="E193">
         <v>2</v>
       </c>
-      <c r="F193" s="0" t="n">
+      <c r="F193">
         <v>1</v>
       </c>
-      <c r="G193" s="0" t="n">
+      <c r="G193">
         <v>1</v>
       </c>
-      <c r="H193" s="0" t="n">
+      <c r="H193">
         <v>0.5</v>
       </c>
-      <c r="I193" s="0" t="n">
+      <c r="I193">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
-      <c r="A194" s="0" t="n">
+    <row r="194" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" t="s">
         <v>210</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" t="s">
         <v>28</v>
       </c>
-      <c r="D194" s="0" t="n">
+      <c r="D194">
         <v>1</v>
       </c>
-      <c r="E194" s="0" t="n">
+      <c r="E194">
         <v>1</v>
       </c>
-      <c r="F194" s="0" t="n">
+      <c r="F194">
         <v>0</v>
       </c>
-      <c r="G194" s="0" t="n">
+      <c r="G194">
         <v>0</v>
       </c>
-      <c r="H194" s="0" t="n">
+      <c r="H194">
         <v>0</v>
       </c>
-      <c r="I194" s="0" t="n">
+      <c r="I194">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
-      <c r="A195" s="0" t="n">
+    <row r="195" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" t="s">
         <v>211</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" t="s">
         <v>52</v>
       </c>
-      <c r="D195" s="0" t="n">
+      <c r="D195">
         <v>1</v>
       </c>
-      <c r="E195" s="0" t="n">
+      <c r="E195">
         <v>1</v>
       </c>
-      <c r="F195" s="0" t="n">
+      <c r="F195">
         <v>4</v>
       </c>
-      <c r="G195" s="0" t="n">
+      <c r="G195">
         <v>0</v>
       </c>
-      <c r="H195" s="0" t="n">
+      <c r="H195">
         <v>4</v>
       </c>
-      <c r="I195" s="0" t="n">
+      <c r="I195">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
-      <c r="A196" s="0" t="n">
+    <row r="196" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" t="s">
         <v>212</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" t="s">
         <v>52</v>
       </c>
-      <c r="D196" s="0" t="n">
+      <c r="D196">
         <v>1</v>
       </c>
-      <c r="E196" s="0" t="n">
+      <c r="E196">
         <v>1</v>
       </c>
-      <c r="F196" s="0" t="n">
+      <c r="F196">
         <v>0</v>
       </c>
-      <c r="G196" s="0" t="n">
+      <c r="G196">
         <v>0</v>
       </c>
-      <c r="H196" s="0" t="n">
+      <c r="H196">
         <v>0</v>
       </c>
-      <c r="I196" s="0" t="n">
+      <c r="I196">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
-      <c r="A197" s="0" t="n">
+    <row r="197" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" t="s">
         <v>213</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" t="s">
         <v>52</v>
       </c>
-      <c r="D197" s="0" t="n">
+      <c r="D197">
         <v>1</v>
       </c>
-      <c r="E197" s="0" t="n">
+      <c r="E197">
         <v>1</v>
       </c>
-      <c r="F197" s="0" t="n">
+      <c r="F197">
         <v>3</v>
       </c>
-      <c r="G197" s="0" t="n">
+      <c r="G197">
         <v>0</v>
       </c>
-      <c r="H197" s="0" t="n">
+      <c r="H197">
         <v>3</v>
       </c>
-      <c r="I197" s="0" t="n">
+      <c r="I197">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
-      <c r="A198" s="0" t="n">
+    <row r="198" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" t="s">
         <v>214</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" t="s">
         <v>28</v>
       </c>
-      <c r="D198" s="0" t="n">
+      <c r="D198">
         <v>1</v>
       </c>
-      <c r="E198" s="0" t="n">
+      <c r="E198">
         <v>1</v>
       </c>
-      <c r="F198" s="0" t="n">
+      <c r="F198">
         <v>5</v>
       </c>
-      <c r="G198" s="0" t="n">
+      <c r="G198">
         <v>0</v>
       </c>
-      <c r="H198" s="0" t="n">
+      <c r="H198">
         <v>5</v>
       </c>
-      <c r="I198" s="0" t="n">
+      <c r="I198">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
-      <c r="A199" s="0" t="n">
+    <row r="199" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" t="s">
         <v>215</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" t="s">
         <v>30</v>
       </c>
-      <c r="D199" s="0" t="n">
+      <c r="D199">
         <v>1</v>
       </c>
-      <c r="E199" s="0" t="n">
+      <c r="E199">
         <v>1</v>
       </c>
-      <c r="F199" s="0" t="n">
+      <c r="F199">
         <v>0</v>
       </c>
-      <c r="G199" s="0" t="n">
+      <c r="G199">
         <v>0</v>
       </c>
-      <c r="H199" s="0" t="n">
+      <c r="H199">
         <v>0</v>
       </c>
-      <c r="I199" s="0" t="n">
+      <c r="I199">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
-      <c r="A200" s="0" t="n">
+    <row r="200" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" t="s">
         <v>216</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" t="s">
         <v>52</v>
       </c>
-      <c r="D200" s="0" t="n">
+      <c r="D200">
         <v>1</v>
       </c>
-      <c r="E200" s="0" t="n">
+      <c r="E200">
         <v>1</v>
       </c>
-      <c r="F200" s="0" t="n">
+      <c r="F200">
         <v>7</v>
       </c>
-      <c r="G200" s="0" t="n">
+      <c r="G200">
         <v>2</v>
       </c>
-      <c r="H200" s="0" t="n">
+      <c r="H200">
         <v>7</v>
       </c>
-      <c r="I200" s="0" t="n">
+      <c r="I200">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
-      <c r="A201" s="0" t="n">
+    <row r="201" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" t="s">
         <v>217</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="0" t="n">
+      <c r="D201">
         <v>1</v>
       </c>
-      <c r="E201" s="0" t="n">
+      <c r="E201">
         <v>1</v>
       </c>
-      <c r="F201" s="0" t="n">
+      <c r="F201">
         <v>67</v>
       </c>
-      <c r="G201" s="0" t="n">
+      <c r="G201">
         <v>0</v>
       </c>
-      <c r="H201" s="0" t="n">
+      <c r="H201">
         <v>67</v>
       </c>
-      <c r="I201" s="0" t="n">
+      <c r="I201">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
-      <c r="A202" s="0" t="n">
+    <row r="202" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" t="s">
         <v>218</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" t="s">
         <v>28</v>
       </c>
-      <c r="D202" s="0" t="n">
+      <c r="D202">
         <v>1</v>
       </c>
-      <c r="E202" s="0" t="n">
+      <c r="E202">
         <v>1</v>
       </c>
-      <c r="F202" s="0" t="n">
+      <c r="F202">
         <v>17</v>
       </c>
-      <c r="G202" s="0" t="n">
+      <c r="G202">
         <v>0</v>
       </c>
-      <c r="H202" s="0" t="n">
+      <c r="H202">
         <v>17</v>
       </c>
-      <c r="I202" s="0" t="n">
+      <c r="I202">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
-      <c r="A203" s="0" t="n">
+    <row r="203" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" t="s">
         <v>219</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" t="s">
         <v>52</v>
       </c>
-      <c r="D203" s="0" t="n">
+      <c r="D203">
         <v>1</v>
       </c>
-      <c r="E203" s="0" t="n">
+      <c r="E203">
         <v>1</v>
       </c>
-      <c r="F203" s="0" t="n">
+      <c r="F203">
         <v>0</v>
       </c>
-      <c r="G203" s="0" t="n">
+      <c r="G203">
         <v>0</v>
       </c>
-      <c r="H203" s="0" t="n">
+      <c r="H203">
         <v>0</v>
       </c>
-      <c r="I203" s="0" t="n">
+      <c r="I203">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
-      <c r="A204" s="0" t="n">
+    <row r="204" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" t="s">
         <v>220</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" t="s">
         <v>28</v>
       </c>
-      <c r="D204" s="0" t="n">
+      <c r="D204">
         <v>1</v>
       </c>
-      <c r="E204" s="0" t="n">
+      <c r="E204">
         <v>1</v>
       </c>
-      <c r="F204" s="0" t="n">
+      <c r="F204">
         <v>0</v>
       </c>
-      <c r="G204" s="0" t="n">
+      <c r="G204">
         <v>0</v>
       </c>
-      <c r="H204" s="0" t="n">
+      <c r="H204">
         <v>0</v>
       </c>
-      <c r="I204" s="0" t="n">
+      <c r="I204">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
-      <c r="A205" s="0" t="n">
+    <row r="205" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" t="s">
         <v>221</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" t="s">
         <v>30</v>
       </c>
-      <c r="D205" s="0" t="n">
+      <c r="D205">
         <v>1</v>
       </c>
-      <c r="E205" s="0" t="n">
+      <c r="E205">
         <v>1</v>
       </c>
-      <c r="F205" s="0" t="n">
+      <c r="F205">
         <v>2</v>
       </c>
-      <c r="G205" s="0" t="n">
+      <c r="G205">
         <v>0</v>
       </c>
-      <c r="H205" s="0" t="n">
+      <c r="H205">
         <v>2</v>
       </c>
-      <c r="I205" s="0" t="n">
+      <c r="I205">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
-      <c r="A206" s="0" t="n">
+    <row r="206" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" t="s">
         <v>222</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" t="s">
         <v>52</v>
       </c>
-      <c r="D206" s="0" t="n">
+      <c r="D206">
         <v>1</v>
       </c>
-      <c r="E206" s="0" t="n">
+      <c r="E206">
         <v>1</v>
       </c>
-      <c r="F206" s="0" t="n">
+      <c r="F206">
         <v>0</v>
       </c>
-      <c r="G206" s="0" t="n">
+      <c r="G206">
         <v>0</v>
       </c>
-      <c r="H206" s="0" t="n">
+      <c r="H206">
         <v>0</v>
       </c>
-      <c r="I206" s="0" t="n">
+      <c r="I206">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
